--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltb</t>
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H2">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I2">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J2">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N2">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P2">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q2">
-        <v>15.93942558283105</v>
+        <v>31.86649125408777</v>
       </c>
       <c r="R2">
-        <v>15.93942558283105</v>
+        <v>286.79842128679</v>
       </c>
       <c r="S2">
-        <v>0.05849967374019752</v>
+        <v>0.06386745305286864</v>
       </c>
       <c r="T2">
-        <v>0.05849967374019752</v>
+        <v>0.06386745305286866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H3">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I3">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J3">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N3">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P3">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q3">
-        <v>23.1846241478124</v>
+        <v>44.05834022805833</v>
       </c>
       <c r="R3">
-        <v>23.1846241478124</v>
+        <v>396.525062052525</v>
       </c>
       <c r="S3">
-        <v>0.08509045331577345</v>
+        <v>0.08830259828941377</v>
       </c>
       <c r="T3">
-        <v>0.08509045331577345</v>
+        <v>0.08830259828941377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H4">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I4">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J4">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N4">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P4">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q4">
-        <v>12.50428588272719</v>
+        <v>26.47313426427056</v>
       </c>
       <c r="R4">
-        <v>12.50428588272719</v>
+        <v>238.258208378435</v>
       </c>
       <c r="S4">
-        <v>0.04589228392782366</v>
+        <v>0.05305798013041989</v>
       </c>
       <c r="T4">
-        <v>0.04589228392782366</v>
+        <v>0.05305798013041989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.485986762316888</v>
+        <v>0.9226816666666666</v>
       </c>
       <c r="H5">
-        <v>0.485986762316888</v>
+        <v>2.768045</v>
       </c>
       <c r="I5">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="J5">
-        <v>0.2087672364522288</v>
+        <v>0.2278424551008264</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.8121109959232</v>
+        <v>12.228925</v>
       </c>
       <c r="N5">
-        <v>10.8121109959232</v>
+        <v>36.686775</v>
       </c>
       <c r="O5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="P5">
-        <v>0.09237477008441904</v>
+        <v>0.09925465215917123</v>
       </c>
       <c r="Q5">
-        <v>5.254542816719539</v>
+        <v>11.28340490054167</v>
       </c>
       <c r="R5">
-        <v>5.254542816719539</v>
+        <v>101.550644104875</v>
       </c>
       <c r="S5">
-        <v>0.01928482546843418</v>
+        <v>0.02261442362812412</v>
       </c>
       <c r="T5">
-        <v>0.01928482546843418</v>
+        <v>0.02261442362812412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -782,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.84190132288126</v>
+        <v>0.267885</v>
       </c>
       <c r="H6">
-        <v>1.84190132288126</v>
+        <v>0.803655</v>
       </c>
       <c r="I6">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955523</v>
       </c>
       <c r="J6">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.7980653358573</v>
+        <v>34.53682066666666</v>
       </c>
       <c r="N6">
-        <v>32.7980653358573</v>
+        <v>103.610462</v>
       </c>
       <c r="O6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583512</v>
       </c>
       <c r="P6">
-        <v>0.2802148207464714</v>
+        <v>0.2803141013583513</v>
       </c>
       <c r="Q6">
-        <v>60.41079993006156</v>
+        <v>9.251896204289999</v>
       </c>
       <c r="R6">
-        <v>60.41079993006156</v>
+        <v>83.26706583860999</v>
       </c>
       <c r="S6">
-        <v>0.2217151470062739</v>
+        <v>0.01854283365451181</v>
       </c>
       <c r="T6">
-        <v>0.2217151470062739</v>
+        <v>0.01854283365451182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.84190132288126</v>
+        <v>0.267885</v>
       </c>
       <c r="H7">
-        <v>1.84190132288126</v>
+        <v>0.803655</v>
       </c>
       <c r="I7">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955523</v>
       </c>
       <c r="J7">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.7062873838009</v>
+        <v>47.750315</v>
       </c>
       <c r="N7">
-        <v>47.7062873838009</v>
+        <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="P7">
-        <v>0.4075852837916177</v>
+        <v>0.3875598963781245</v>
       </c>
       <c r="Q7">
-        <v>87.87027384197644</v>
+        <v>12.791593133775</v>
       </c>
       <c r="R7">
-        <v>87.87027384197644</v>
+        <v>115.124338203975</v>
       </c>
       <c r="S7">
-        <v>0.3224948304758443</v>
+        <v>0.02563716436267431</v>
       </c>
       <c r="T7">
-        <v>0.3224948304758443</v>
+        <v>0.02563716436267432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.84190132288126</v>
+        <v>0.267885</v>
       </c>
       <c r="H8">
-        <v>1.84190132288126</v>
+        <v>0.803655</v>
       </c>
       <c r="I8">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955523</v>
       </c>
       <c r="J8">
-        <v>0.7912327635477712</v>
+        <v>0.06615019923955524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.7296841237288</v>
+        <v>28.69151433333333</v>
       </c>
       <c r="N8">
-        <v>25.7296841237288</v>
+        <v>86.07454300000001</v>
       </c>
       <c r="O8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="P8">
-        <v>0.2198251253774917</v>
+        <v>0.232871350104353</v>
       </c>
       <c r="Q8">
-        <v>47.39153922481302</v>
+        <v>7.686026317185</v>
       </c>
       <c r="R8">
-        <v>47.39153922481302</v>
+        <v>69.17423685466501</v>
       </c>
       <c r="S8">
-        <v>0.1739328414496681</v>
+        <v>0.01540448620658717</v>
       </c>
       <c r="T8">
-        <v>0.1739328414496681</v>
+        <v>0.01540448620658718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.267885</v>
+      </c>
+      <c r="H9">
+        <v>0.803655</v>
+      </c>
+      <c r="I9">
+        <v>0.06615019923955523</v>
+      </c>
+      <c r="J9">
+        <v>0.06615019923955524</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.228925</v>
+      </c>
+      <c r="N9">
+        <v>36.686775</v>
+      </c>
+      <c r="O9">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="P9">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="Q9">
+        <v>3.275945573625</v>
+      </c>
+      <c r="R9">
+        <v>29.483510162625</v>
+      </c>
+      <c r="S9">
+        <v>0.006565715015781928</v>
+      </c>
+      <c r="T9">
+        <v>0.006565715015781929</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H10">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J10">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>34.53682066666666</v>
+      </c>
+      <c r="N10">
+        <v>103.610462</v>
+      </c>
+      <c r="O10">
+        <v>0.2803141013583512</v>
+      </c>
+      <c r="P10">
+        <v>0.2803141013583513</v>
+      </c>
+      <c r="Q10">
+        <v>96.23884241099178</v>
+      </c>
+      <c r="R10">
+        <v>866.1495816989261</v>
+      </c>
+      <c r="S10">
+        <v>0.1928837944704055</v>
+      </c>
+      <c r="T10">
+        <v>0.1928837944704056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H11">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J11">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>47.750315</v>
+      </c>
+      <c r="N11">
+        <v>143.250945</v>
+      </c>
+      <c r="O11">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="P11">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="Q11">
+        <v>133.0590063489983</v>
+      </c>
+      <c r="R11">
+        <v>1197.531057140985</v>
+      </c>
+      <c r="S11">
+        <v>0.2666794964496093</v>
+      </c>
+      <c r="T11">
+        <v>0.2666794964496093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H12">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J12">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.69151433333333</v>
+      </c>
+      <c r="N12">
+        <v>86.07454300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="P12">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="Q12">
+        <v>79.95055923382657</v>
+      </c>
+      <c r="R12">
+        <v>719.5550331044391</v>
+      </c>
+      <c r="S12">
+        <v>0.1602384946526547</v>
+      </c>
+      <c r="T12">
+        <v>0.1602384946526547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.786557666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.359673000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="J13">
+        <v>0.688098791804357</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.228925</v>
+      </c>
+      <c r="N13">
+        <v>36.686775</v>
+      </c>
+      <c r="O13">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="P13">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="Q13">
+        <v>34.07660471384168</v>
+      </c>
+      <c r="R13">
+        <v>306.6894424245751</v>
+      </c>
+      <c r="S13">
+        <v>0.06829700623168743</v>
+      </c>
+      <c r="T13">
+        <v>0.06829700623168743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.84190132288126</v>
-      </c>
-      <c r="H9">
-        <v>1.84190132288126</v>
-      </c>
-      <c r="I9">
-        <v>0.7912327635477712</v>
-      </c>
-      <c r="J9">
-        <v>0.7912327635477712</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.8121109959232</v>
-      </c>
-      <c r="N9">
-        <v>10.8121109959232</v>
-      </c>
-      <c r="O9">
-        <v>0.09237477008441904</v>
-      </c>
-      <c r="P9">
-        <v>0.09237477008441904</v>
-      </c>
-      <c r="Q9">
-        <v>19.91484154652996</v>
-      </c>
-      <c r="R9">
-        <v>19.91484154652996</v>
-      </c>
-      <c r="S9">
-        <v>0.07308994461598485</v>
-      </c>
-      <c r="T9">
-        <v>0.07308994461598485</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.21757</v>
+      </c>
+      <c r="I14">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J14">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>34.53682066666666</v>
+      </c>
+      <c r="N14">
+        <v>103.610462</v>
+      </c>
+      <c r="O14">
+        <v>0.2803141013583512</v>
+      </c>
+      <c r="P14">
+        <v>0.2803141013583513</v>
+      </c>
+      <c r="Q14">
+        <v>2.504725357482222</v>
+      </c>
+      <c r="R14">
+        <v>22.54252821734</v>
+      </c>
+      <c r="S14">
+        <v>0.005020020180565212</v>
+      </c>
+      <c r="T14">
+        <v>0.005020020180565213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.21757</v>
+      </c>
+      <c r="I15">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J15">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>47.750315</v>
+      </c>
+      <c r="N15">
+        <v>143.250945</v>
+      </c>
+      <c r="O15">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="P15">
+        <v>0.3875598963781245</v>
+      </c>
+      <c r="Q15">
+        <v>3.463012011516667</v>
+      </c>
+      <c r="R15">
+        <v>31.16710810365</v>
+      </c>
+      <c r="S15">
+        <v>0.006940637276427138</v>
+      </c>
+      <c r="T15">
+        <v>0.006940637276427138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.21757</v>
+      </c>
+      <c r="I16">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J16">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.69151433333333</v>
+      </c>
+      <c r="N16">
+        <v>86.07454300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="P16">
+        <v>0.232871350104353</v>
+      </c>
+      <c r="Q16">
+        <v>2.080804257834445</v>
+      </c>
+      <c r="R16">
+        <v>18.72723832051</v>
+      </c>
+      <c r="S16">
+        <v>0.004170389114691219</v>
+      </c>
+      <c r="T16">
+        <v>0.004170389114691219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.07252333333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.21757</v>
+      </c>
+      <c r="I17">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="J17">
+        <v>0.01790855385526132</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.228925</v>
+      </c>
+      <c r="N17">
+        <v>36.686775</v>
+      </c>
+      <c r="O17">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="P17">
+        <v>0.09925465215917123</v>
+      </c>
+      <c r="Q17">
+        <v>0.8868824040833336</v>
+      </c>
+      <c r="R17">
+        <v>7.981941636750001</v>
+      </c>
+      <c r="S17">
+        <v>0.001777507283577747</v>
+      </c>
+      <c r="T17">
+        <v>0.001777507283577747</v>
       </c>
     </row>
   </sheetData>
